--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1732.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1732.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4585205453509577</v>
+        <v>0.9894965887069702</v>
       </c>
       <c r="B1">
-        <v>0.9896725827533683</v>
+        <v>1.521806001663208</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.802726814681165</v>
+        <v>1.754169821739197</v>
       </c>
       <c r="E1">
-        <v>1.797255661499497</v>
+        <v>1.049919247627258</v>
       </c>
     </row>
   </sheetData>
